--- a/Proyecto final G6 - Costos Indirectos .xlsx
+++ b/Proyecto final G6 - Costos Indirectos .xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -46,9 +54,6 @@
     <t xml:space="preserve">   Escritorios x7</t>
   </si>
   <si>
-    <t xml:space="preserve">   Sillas x7</t>
-  </si>
-  <si>
     <t>3. Equipamiento</t>
   </si>
   <si>
@@ -64,9 +69,6 @@
     <t>4. Gastos del profesional x7</t>
   </si>
   <si>
-    <t>Seguro anti incendios</t>
-  </si>
-  <si>
     <t>Cursos / Certificaciones x7</t>
   </si>
   <si>
@@ -77,30 +79,39 @@
   </si>
   <si>
     <t>Costos fijos del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sillas x10</t>
+  </si>
+  <si>
+    <t>Seguro (robo e incendios)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Inter"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Inter"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Inter"/>
     </font>
@@ -110,7 +121,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -120,7 +131,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -134,57 +151,51 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -374,23 +385,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.13"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:4" ht="12.75">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,236 +417,236 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:4" ht="12.75">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="2:4" ht="12.75">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C7" si="1">D4*12</f>
+        <f t="shared" ref="C4:C7" si="0">D4*12</f>
         <v>1440000</v>
       </c>
       <c r="D4" s="4">
-        <v>120000.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="12.75">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>360000</v>
       </c>
       <c r="D5" s="4">
-        <v>30000.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="12.75">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="D6" s="4">
-        <v>10000.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="12.75">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>480000</v>
       </c>
       <c r="D7" s="4">
-        <v>40000.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="12.75">
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="2:4" ht="12.75">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="2:4" ht="12.75">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:4" ht="12.75">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>7000.0</v>
+        <v>7000</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" ref="D11:D12" si="2">C11/12</f>
-        <v>583.3333333</v>
-      </c>
-    </row>
-    <row r="12">
+        <f t="shared" ref="D11:D12" si="1">C11/12</f>
+        <v>583.33333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="12.75">
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>35000.0</v>
+        <v>50000</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="2"/>
-        <v>2916.666667</v>
-      </c>
-    </row>
-    <row r="13">
+        <f t="shared" si="1"/>
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="12.75">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:4" ht="12.75">
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:4" ht="12.75">
       <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>300000</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:D16" si="2">C15/12</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="12.75">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
-        <v>300000.0</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" ref="D15:D16" si="3">C15/12</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="12.75">
+      <c r="B17" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <v>60000.0</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C17" s="3">
         <f>D17*12</f>
         <v>51600</v>
       </c>
       <c r="D17" s="4">
-        <v>4300.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="12.75">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:4" ht="12.75">
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:4" ht="12.75">
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:4" ht="12.75">
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3">
         <f>D21*12</f>
-        <v>10800</v>
+        <v>18000</v>
       </c>
       <c r="D21" s="4">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="12.75">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="2:4" ht="12.75">
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
         <f>D23*12</f>
-        <v>252000</v>
+        <v>840000</v>
       </c>
       <c r="D23" s="4">
-        <f>7*3000</f>
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="24">
+        <f>7*10000</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="12.75">
       <c r="B24" s="7"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" ht="29.25" customHeight="1">
+    <row r="25" spans="2:4" ht="29.25" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" ref="C25:D25" si="4">SUM(C3:C24)</f>
-        <v>3116400</v>
+        <f t="shared" ref="C25:D25" si="3">SUM(C3:C24)</f>
+        <v>3726600</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="4"/>
-        <v>259700</v>
-      </c>
-    </row>
-    <row r="27">
+        <f t="shared" si="3"/>
+        <v>310550</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="12.75">
       <c r="B27" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="10">
         <f>D25/30</f>
-        <v>8656.666667</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>10351.666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="12.75">
       <c r="B28" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="8">
         <f>C27*48.75</f>
-        <v>422012.5</v>
+        <v>504643.74999999994</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Proyecto final G6 - Costos Indirectos .xlsx
+++ b/Proyecto final G6 - Costos Indirectos .xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi_\Desktop\TPI-Planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9CE4F-26D4-4B6D-9D6C-2109C3EC5A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="13035" yWindow="4950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -90,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -391,14 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -641,9 +653,9 @@
       <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="8">
-        <f>C27*48.75</f>
-        <v>504643.74999999994</v>
+      <c r="C28" s="10">
+        <f>C27*32</f>
+        <v>331253.33333333331</v>
       </c>
     </row>
   </sheetData>
